--- a/storage/app/public/test/import_test.xlsx
+++ b/storage/app/public/test/import_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\92agg\Desktop\Svendeprøve\storage\app\public\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92412BE-CD93-4097-B10D-4DC6EF4F9697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1273C8-B85C-4B41-B008-70BC3E1F488B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-7260" windowWidth="16440" windowHeight="28320" xr2:uid="{577A64D8-9AE0-4645-8E34-BADD664AAAAB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Title</t>
   </si>
@@ -69,15 +69,12 @@
     <t>Author</t>
   </si>
   <si>
-    <t>Harry Potter 3</t>
-  </si>
-  <si>
-    <t>Harry fylder 11 år og får en nyhe</t>
-  </si>
-  <si>
     <t>Ny</t>
   </si>
   <si>
+    <t>Paperback</t>
+  </si>
+  <si>
     <t>Gyldendal</t>
   </si>
   <si>
@@ -87,10 +84,33 @@
     <t>Fantasy</t>
   </si>
   <si>
-    <t>J. K. Rowling</t>
-  </si>
-  <si>
     <t>Hardback</t>
+  </si>
+  <si>
+    <t>1000-Årsriget</t>
+  </si>
+  <si>
+    <t>Den bedste vikingebog siden Røde Orm - en formidabel røverhistorie pakket ind i fakta! 
+ I år 937 hærges Britannien endnu engang af daner på plyndringstogt. Ulv er en flabet og hidsig lokal knægt, der bliver taget som træl af danerne og lænket til en årebænk på skibet Havormen, hvor han lærer den gigantiske mand, Ymer, at kende. Selvom Ymer forsøger at få sat skik på Ulv for at forbedre hans chance for overlevelse i selskab af hårde mænd fra Nord, nægter Ulv at acceptere livet som træl for vikinger."1000-årsriget" beretter gennem hovedpersonen, Ulv Palnatoke, den 1000 år gamle og dramatiske historie om Gorm den Mægtige, Knud Gormsøn og Harald Kongesøn - de tre legendariske konger, der i dag er bedre kendt som Gorm den Gamle, Knud Dana-Ast og Harald Blåtand.
+"1000-årsriget" skildrer, hvordan Ulv ad omveje ender i Jylland og hvirvles ind i de benhårde kampe om det, der engang skal blive til Danmark. Gorm Konge skyr ingen midler for at sikre sig herredømmet over danerne... og det kræver Ulvs hjælp.</t>
+  </si>
+  <si>
+    <t>Tonny Gulløv</t>
+  </si>
+  <si>
+    <t>Arn 1, Svig og trolddom</t>
+  </si>
+  <si>
+    <t>Kong Erik er en mand af ære. Der bliver fortalt historier om hans mod. Sådan vil Arn også være. Han er snart voksen, og næste år skal han med på togt. Men intet kommer til at gå, som Arn havde regnet med.</t>
+  </si>
+  <si>
+    <t>Josefine Ottesen</t>
+  </si>
+  <si>
+    <t>import/1000-riget.png</t>
+  </si>
+  <si>
+    <t>import/Alina1.png</t>
   </si>
 </sst>
 </file>
@@ -135,10 +155,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -454,15 +477,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0B03B4-E4AA-4CDF-9718-7F9FDC79B7D9}">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -511,49 +534,96 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>9788792035066</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42614</v>
+      </c>
+      <c r="E2">
+        <v>530</v>
+      </c>
+      <c r="F2">
+        <v>195</v>
+      </c>
+      <c r="G2">
+        <v>159</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>9788702173258</v>
-      </c>
-      <c r="D2" s="1">
-        <v>40858</v>
-      </c>
-      <c r="E2">
-        <v>111</v>
-      </c>
-      <c r="F2">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>111</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AE2" s="2"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>9788723554758</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44662</v>
+      </c>
+      <c r="E3">
+        <v>72</v>
+      </c>
+      <c r="F3">
+        <v>95</v>
+      </c>
+      <c r="G3">
+        <v>235</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/storage/app/public/test/import_test.xlsx
+++ b/storage/app/public/test/import_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\92agg\Desktop\Svendeprøve\storage\app\public\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1273C8-B85C-4B41-B008-70BC3E1F488B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C4A6F4-AC1C-4744-A846-0AAE613F6CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-7260" windowWidth="16440" windowHeight="28320" xr2:uid="{577A64D8-9AE0-4645-8E34-BADD664AAAAB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>Title</t>
   </si>
@@ -111,6 +111,57 @@
   </si>
   <si>
     <t>import/Alina1.png</t>
+  </si>
+  <si>
+    <t>import/boerste-hindbaerbrus.png</t>
+  </si>
+  <si>
+    <t>Børste - hindbærbrus og røde nøjfer</t>
+  </si>
+  <si>
+    <t>”Forelskelse kan man ikke gardere sig imod. Her er man lovligt undskyldt ligesom under en stormflod!” siger fru Potersen, Børstes yndlingsnabo. ”Men kærlighed kan være strid, hvis den ikke bliver gengældt. Så sørg for at finde dig en kæreste, der ringer tilbage, Børste. Alt andet er spild af tid!”</t>
+  </si>
+  <si>
+    <t>Brugt</t>
+  </si>
+  <si>
+    <t>Ringenes Herre 1</t>
+  </si>
+  <si>
+    <t>Paperback-udgave med filmforside. Teksten er gennemrevideret af Jakob Levinsen, og alle appendikser er med. Derved udkommer værket for første gang på dansk i komplet version.Første bind af Tolkiens udødelige klassiker om hobbitten Frodo, der arver en mystisk ring af sin onkel Bilbo. Men Ringen tilhører den onde fyrst Sauron, der vil bruge</t>
+  </si>
+  <si>
+    <t>import/Ringenes-herre-1.png</t>
+  </si>
+  <si>
+    <t>Indbundet</t>
+  </si>
+  <si>
+    <t>Ringenes Herre 2</t>
+  </si>
+  <si>
+    <t>Paperback-udgave med filmforside. Teksten er gennemrevideret af Jakob Levinsen, og alle appendikser er med. Derved udkommer værket for første gang på dansk i komplet version.2. bind af Tolkiens udødelige klassiker om hobbitten Frodo</t>
+  </si>
+  <si>
+    <t>import/Ringenes-herre-2.png</t>
+  </si>
+  <si>
+    <t>import/Ringenes-herre-3.png</t>
+  </si>
+  <si>
+    <t>Ringenes Herre 3</t>
+  </si>
+  <si>
+    <t>Paperback-udgave med filmforside. Teksten er gennemrevideret af Jakob Levinsen, og alle appendikser er med. Derved udkommer værket for første gang på dansk i komplet version.3. bind af Tolkiens udødelige klassiker om hobbitten Frodo, der arver en mystisk ring af sin onkel Bilbo. Men Ringen tilhører den onde fyrst Sauron</t>
+  </si>
+  <si>
+    <t>Ringenes Herre og filosofien</t>
+  </si>
+  <si>
+    <t>Denne bog giver dig et indblik i filosofi i hobbithøjde. Ringenes Herre og filosofien forklarer filosofiske begreber og overvejelser med udgangspunkt i den populære kultserie fra J.R.R. Tolkien.</t>
+  </si>
+  <si>
+    <t>import/ringenes-herre-og-filosofien.png</t>
   </si>
 </sst>
 </file>
@@ -477,16 +528,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0B03B4-E4AA-4CDF-9718-7F9FDC79B7D9}">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
     <col min="13" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -625,6 +679,226 @@
         <v>25</v>
       </c>
     </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>2145239867152</v>
+      </c>
+      <c r="D4" s="1">
+        <v>41141</v>
+      </c>
+      <c r="E4">
+        <v>131</v>
+      </c>
+      <c r="F4">
+        <v>221</v>
+      </c>
+      <c r="G4">
+        <v>140</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>9788702134575</v>
+      </c>
+      <c r="D5" s="1">
+        <v>41219</v>
+      </c>
+      <c r="E5">
+        <v>656</v>
+      </c>
+      <c r="F5">
+        <v>87</v>
+      </c>
+      <c r="G5">
+        <v>149</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>9788702134582</v>
+      </c>
+      <c r="D6" s="1">
+        <v>41219</v>
+      </c>
+      <c r="E6">
+        <v>544</v>
+      </c>
+      <c r="F6">
+        <v>81</v>
+      </c>
+      <c r="G6">
+        <v>249</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>9788702134599</v>
+      </c>
+      <c r="D7" s="1">
+        <v>41219</v>
+      </c>
+      <c r="E7">
+        <v>644</v>
+      </c>
+      <c r="F7">
+        <v>72</v>
+      </c>
+      <c r="G7">
+        <v>169</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>9788772161433</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43815</v>
+      </c>
+      <c r="E8">
+        <v>295</v>
+      </c>
+      <c r="F8">
+        <v>41</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
